--- a/ITG8.xlsx
+++ b/ITG8.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Codigos MAtlab\Grafos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Ordenadisimo-20231119T175449Z-001\Ordenadisimo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="4485" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="itg08_carga" sheetId="1" r:id="rId1"/>
@@ -1960,44 +1960,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2035,46 +2026,55 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4024,8 +4024,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19335,8 +19335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19384,12 +19384,12 @@
       <c r="W3" s="24"/>
     </row>
     <row r="4" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="94" t="s">
         <v>344</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
@@ -19404,83 +19404,83 @@
       <c r="V4" s="24"/>
       <c r="W4" s="24"/>
     </row>
-    <row r="5" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="116" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="96" t="s">
         <v>346</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="96" t="s">
         <v>347</v>
       </c>
-      <c r="G5" s="115" t="s">
+      <c r="G5" s="96" t="s">
         <v>402</v>
       </c>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="96" t="s">
         <v>401</v>
       </c>
-      <c r="I5" s="115" t="s">
+      <c r="I5" s="96" t="s">
         <v>348</v>
       </c>
-      <c r="J5" s="115" t="s">
+      <c r="J5" s="96" t="s">
         <v>410</v>
       </c>
-      <c r="K5" s="122" t="s">
+      <c r="K5" s="97" t="s">
         <v>411</v>
       </c>
-      <c r="L5" s="92" t="s">
+      <c r="L5" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="98" t="s">
         <v>412</v>
       </c>
-      <c r="N5" s="92" t="s">
+      <c r="N5" s="98" t="s">
         <v>409</v>
       </c>
-      <c r="O5" s="117" t="s">
+      <c r="O5" s="90" t="s">
         <v>418</v>
       </c>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="115" t="s">
+      <c r="P5" s="91"/>
+      <c r="Q5" s="96" t="s">
         <v>385</v>
       </c>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
     </row>
     <row r="6" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
@@ -20547,11 +20547,11 @@
       <c r="V23" s="25"/>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="102" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="23"/>
       <c r="F24" s="26" t="s">
         <v>350</v>
@@ -20574,10 +20574,10 @@
       <c r="V24" s="25"/>
     </row>
     <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="114"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="111"/>
       <c r="F25" s="26" t="s">
         <v>351</v>
       </c>
@@ -20599,10 +20599,10 @@
       <c r="V25" s="25"/>
     </row>
     <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="114"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="111"/>
       <c r="F26" s="26" t="s">
         <v>352</v>
       </c>
@@ -20624,9 +20624,9 @@
       <c r="V26" s="25"/>
     </row>
     <row r="27" spans="1:23" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110"/>
       <c r="E27" s="26" t="s">
         <v>353</v>
       </c>
@@ -20743,43 +20743,43 @@
     </row>
     <row r="36" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="117" t="s">
         <v>367</v>
       </c>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="99"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="119"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="114" t="s">
         <v>369</v>
       </c>
       <c r="D39" s="39"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="95"/>
-      <c r="C40" s="96"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="116"/>
       <c r="D40" s="40"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
       <c r="D41" s="41"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="41"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
       <c r="D43" s="41"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -20805,9 +20805,9 @@
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
@@ -20822,12 +20822,12 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="112" t="s">
         <v>389</v>
       </c>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
       <c r="F49" s="50">
         <v>1000</v>
       </c>
@@ -20839,12 +20839,12 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="112" t="s">
         <v>391</v>
       </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
       <c r="F50" s="50">
         <v>1000</v>
       </c>
@@ -20856,12 +20856,12 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="112" t="s">
         <v>392</v>
       </c>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
       <c r="F51" s="50">
         <v>1000</v>
       </c>
@@ -20873,12 +20873,12 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="112" t="s">
         <v>393</v>
       </c>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
       <c r="F52" s="50">
         <v>1000</v>
       </c>
@@ -20890,12 +20890,12 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="90" t="s">
+      <c r="B53" s="112" t="s">
         <v>394</v>
       </c>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
       <c r="F53" s="50">
         <v>1000</v>
       </c>
@@ -20954,16 +20954,18 @@
     <row r="70" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
@@ -20980,18 +20982,16 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22003,16 +22003,16 @@
       <c r="B22" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
@@ -23295,16 +23295,16 @@
       <c r="B42" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="C42" s="125" t="s">
+      <c r="C42" s="127" t="s">
         <v>303</v>
       </c>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -24521,16 +24521,16 @@
       <c r="B61" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="C61" s="125" t="s">
+      <c r="C61" s="127" t="s">
         <v>361</v>
       </c>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="126"/>
+      <c r="D61" s="128"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="128"/>
+      <c r="J61" s="128"/>
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
@@ -27211,16 +27211,16 @@
       </c>
     </row>
     <row r="100" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="116" t="s">
+      <c r="B100" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="C100" s="127" t="s">
+      <c r="C100" s="124" t="s">
         <v>345</v>
       </c>
-      <c r="D100" s="127" t="s">
+      <c r="D100" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="E100" s="127" t="s">
+      <c r="E100" s="124" t="s">
         <v>375</v>
       </c>
       <c r="F100" s="129" t="s">
@@ -27229,16 +27229,16 @@
       <c r="G100" s="129" t="s">
         <v>304</v>
       </c>
-      <c r="H100" s="127" t="s">
+      <c r="H100" s="124" t="s">
         <v>376</v>
       </c>
-      <c r="I100" s="115" t="s">
+      <c r="I100" s="96" t="s">
         <v>377</v>
       </c>
-      <c r="J100" s="115" t="s">
+      <c r="J100" s="96" t="s">
         <v>406</v>
       </c>
-      <c r="K100" s="127" t="s">
+      <c r="K100" s="124" t="s">
         <v>386</v>
       </c>
       <c r="L100" t="s">
@@ -27246,16 +27246,16 @@
       </c>
     </row>
     <row r="101" spans="2:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="116"/>
-      <c r="C101" s="128"/>
-      <c r="D101" s="128"/>
-      <c r="E101" s="128"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="125"/>
+      <c r="D101" s="125"/>
+      <c r="E101" s="125"/>
       <c r="F101" s="130"/>
       <c r="G101" s="130"/>
-      <c r="H101" s="128"/>
-      <c r="I101" s="116"/>
-      <c r="J101" s="116"/>
-      <c r="K101" s="128"/>
+      <c r="H101" s="125"/>
+      <c r="I101" s="95"/>
+      <c r="J101" s="95"/>
+      <c r="K101" s="125"/>
     </row>
     <row r="102" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
@@ -27931,10 +27931,10 @@
       <c r="K118" s="36"/>
     </row>
     <row r="120" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B120" s="124" t="s">
+      <c r="B120" s="123" t="s">
         <v>367</v>
       </c>
-      <c r="C120" s="124"/>
+      <c r="C120" s="123"/>
       <c r="E120" s="81" t="s">
         <v>378</v>
       </c>
@@ -28021,12 +28021,12 @@
       <c r="K128" s="24"/>
     </row>
     <row r="129" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B129" s="90" t="s">
+      <c r="B129" s="112" t="s">
         <v>389</v>
       </c>
-      <c r="C129" s="90"/>
-      <c r="D129" s="90"/>
-      <c r="E129" s="90"/>
+      <c r="C129" s="112"/>
+      <c r="D129" s="112"/>
+      <c r="E129" s="112"/>
       <c r="F129" s="50">
         <v>1000</v>
       </c>
@@ -28040,12 +28040,12 @@
       <c r="K129" s="24"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" s="90" t="s">
+      <c r="B130" s="112" t="s">
         <v>391</v>
       </c>
-      <c r="C130" s="90"/>
-      <c r="D130" s="90"/>
-      <c r="E130" s="90"/>
+      <c r="C130" s="112"/>
+      <c r="D130" s="112"/>
+      <c r="E130" s="112"/>
       <c r="F130" s="50">
         <v>1000</v>
       </c>
@@ -28059,12 +28059,12 @@
       <c r="K130" s="24"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B131" s="90" t="s">
+      <c r="B131" s="112" t="s">
         <v>392</v>
       </c>
-      <c r="C131" s="90"/>
-      <c r="D131" s="90"/>
-      <c r="E131" s="90"/>
+      <c r="C131" s="112"/>
+      <c r="D131" s="112"/>
+      <c r="E131" s="112"/>
       <c r="F131" s="50">
         <v>1000</v>
       </c>
@@ -28078,12 +28078,12 @@
       <c r="K131" s="24"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B132" s="90" t="s">
+      <c r="B132" s="112" t="s">
         <v>393</v>
       </c>
-      <c r="C132" s="90"/>
-      <c r="D132" s="90"/>
-      <c r="E132" s="90"/>
+      <c r="C132" s="112"/>
+      <c r="D132" s="112"/>
+      <c r="E132" s="112"/>
       <c r="F132" s="50">
         <v>1000</v>
       </c>
@@ -28097,12 +28097,12 @@
       <c r="K132" s="24"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B133" s="90" t="s">
+      <c r="B133" s="112" t="s">
         <v>394</v>
       </c>
-      <c r="C133" s="90"/>
-      <c r="D133" s="90"/>
-      <c r="E133" s="90"/>
+      <c r="C133" s="112"/>
+      <c r="D133" s="112"/>
+      <c r="E133" s="112"/>
       <c r="F133" s="50">
         <v>1000</v>
       </c>
@@ -28125,6 +28125,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
     <mergeCell ref="B129:E129"/>
     <mergeCell ref="B130:E130"/>
     <mergeCell ref="B132:E132"/>
@@ -28137,14 +28145,6 @@
     <mergeCell ref="D100:D101"/>
     <mergeCell ref="E100:E101"/>
     <mergeCell ref="B131:E131"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
